--- a/tmp/check1.xlsx
+++ b/tmp/check1.xlsx
@@ -24,10 +24,10 @@
     <t>Привет</t>
   </si>
   <si>
-    <t>Пока</t>
+    <t>Здравствуйте</t>
   </si>
   <si>
-    <t>Здравствуйте</t>
+    <t>Пока</t>
   </si>
 </sst>
 </file>
@@ -5317,7 +5317,7 @@
   <dimension ref="A2:A4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5333,12 +5333,12 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
